--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Gpr1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.59254484752201</v>
+        <v>3.916729333333334</v>
       </c>
       <c r="H2">
-        <v>3.59254484752201</v>
+        <v>11.750188</v>
       </c>
       <c r="I2">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845182</v>
       </c>
       <c r="J2">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845181</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.74986089612813</v>
+        <v>2.75858</v>
       </c>
       <c r="N2">
-        <v>2.74986089612813</v>
+        <v>8.275739999999999</v>
       </c>
       <c r="O2">
-        <v>0.5510345185681377</v>
+        <v>0.5077178793781231</v>
       </c>
       <c r="P2">
-        <v>0.5510345185681377</v>
+        <v>0.507717879378123</v>
       </c>
       <c r="Q2">
-        <v>9.878998593787371</v>
+        <v>10.80461120434667</v>
       </c>
       <c r="R2">
-        <v>9.878998593787371</v>
+        <v>97.24150083911999</v>
       </c>
       <c r="S2">
-        <v>0.03470309482503494</v>
+        <v>0.02966400933955556</v>
       </c>
       <c r="T2">
-        <v>0.03470309482503494</v>
+        <v>0.02966400933955555</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.59254484752201</v>
+        <v>3.916729333333334</v>
       </c>
       <c r="H3">
-        <v>3.59254484752201</v>
+        <v>11.750188</v>
       </c>
       <c r="I3">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845182</v>
       </c>
       <c r="J3">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845181</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.66806562224113</v>
+        <v>2.008641666666667</v>
       </c>
       <c r="N3">
-        <v>1.66806562224113</v>
+        <v>6.025925</v>
       </c>
       <c r="O3">
-        <v>0.3342575394944173</v>
+        <v>0.3696913946416412</v>
       </c>
       <c r="P3">
-        <v>0.3342575394944173</v>
+        <v>0.3696913946416412</v>
       </c>
       <c r="Q3">
-        <v>5.992600556510967</v>
+        <v>7.86730573598889</v>
       </c>
       <c r="R3">
-        <v>5.992600556510967</v>
+        <v>70.80575162390001</v>
       </c>
       <c r="S3">
-        <v>0.02105089735430661</v>
+        <v>0.02159965096528665</v>
       </c>
       <c r="T3">
-        <v>0.02105089735430661</v>
+        <v>0.02159965096528664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.59254484752201</v>
+        <v>3.916729333333334</v>
       </c>
       <c r="H4">
-        <v>3.59254484752201</v>
+        <v>11.750188</v>
       </c>
       <c r="I4">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845182</v>
       </c>
       <c r="J4">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845181</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.572433982591077</v>
+        <v>0.009769666666666668</v>
       </c>
       <c r="N4">
-        <v>0.572433982591077</v>
+        <v>0.029309</v>
       </c>
       <c r="O4">
-        <v>0.1147079419374449</v>
+        <v>0.001798111507453522</v>
       </c>
       <c r="P4">
-        <v>0.1147079419374449</v>
+        <v>0.001798111507453522</v>
       </c>
       <c r="Q4">
-        <v>2.056494754704078</v>
+        <v>0.03826514001022224</v>
       </c>
       <c r="R4">
-        <v>2.056494754704078</v>
+        <v>0.3443862600920001</v>
       </c>
       <c r="S4">
-        <v>0.007224085700808091</v>
+        <v>0.0001050567622633183</v>
       </c>
       <c r="T4">
-        <v>0.007224085700808091</v>
+        <v>0.0001050567622633183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,55 +714,55 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.3801513642568</v>
+        <v>3.916729333333334</v>
       </c>
       <c r="H5">
-        <v>48.3801513642568</v>
+        <v>11.750188</v>
       </c>
       <c r="I5">
-        <v>0.8481143784671781</v>
+        <v>0.05842616646845182</v>
       </c>
       <c r="J5">
-        <v>0.8481143784671781</v>
+        <v>0.05842616646845181</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.74986089612813</v>
+        <v>0.6563016666666667</v>
       </c>
       <c r="N5">
-        <v>2.74986089612813</v>
+        <v>1.968905</v>
       </c>
       <c r="O5">
-        <v>0.5510345185681377</v>
+        <v>0.1207926144727823</v>
       </c>
       <c r="P5">
-        <v>0.5510345185681377</v>
+        <v>0.1207926144727823</v>
       </c>
       <c r="Q5">
-        <v>133.0386863853298</v>
+        <v>2.570555989348889</v>
       </c>
       <c r="R5">
-        <v>133.0386863853298</v>
+        <v>23.13500390414</v>
       </c>
       <c r="S5">
-        <v>0.4673402982293768</v>
+        <v>0.007057449401346302</v>
       </c>
       <c r="T5">
-        <v>0.4673402982293768</v>
+        <v>0.007057449401346299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.3801513642568</v>
+        <v>48.53546666666667</v>
       </c>
       <c r="H6">
-        <v>48.3801513642568</v>
+        <v>145.6064</v>
       </c>
       <c r="I6">
-        <v>0.8481143784671781</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="J6">
-        <v>0.8481143784671781</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.66806562224113</v>
+        <v>2.75858</v>
       </c>
       <c r="N6">
-        <v>1.66806562224113</v>
+        <v>8.275739999999999</v>
       </c>
       <c r="O6">
-        <v>0.3342575394944173</v>
+        <v>0.5077178793781231</v>
       </c>
       <c r="P6">
-        <v>0.3342575394944173</v>
+        <v>0.507717879378123</v>
       </c>
       <c r="Q6">
-        <v>80.70126728953908</v>
+        <v>133.8889676373333</v>
       </c>
       <c r="R6">
-        <v>80.70126728953908</v>
+        <v>1205.000708736</v>
       </c>
       <c r="S6">
-        <v>0.283488625356276</v>
+        <v>0.3675915321098746</v>
       </c>
       <c r="T6">
-        <v>0.283488625356276</v>
+        <v>0.3675915321098744</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,60 +838,60 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.3801513642568</v>
+        <v>48.53546666666667</v>
       </c>
       <c r="H7">
-        <v>48.3801513642568</v>
+        <v>145.6064</v>
       </c>
       <c r="I7">
-        <v>0.8481143784671781</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="J7">
-        <v>0.8481143784671781</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.572433982591077</v>
+        <v>2.008641666666667</v>
       </c>
       <c r="N7">
-        <v>0.572433982591077</v>
+        <v>6.025925</v>
       </c>
       <c r="O7">
-        <v>0.1147079419374449</v>
+        <v>0.3696913946416412</v>
       </c>
       <c r="P7">
-        <v>0.1147079419374449</v>
+        <v>0.3696913946416412</v>
       </c>
       <c r="Q7">
-        <v>27.69444272380065</v>
+        <v>97.49036065777779</v>
       </c>
       <c r="R7">
-        <v>27.69444272380065</v>
+        <v>877.41324592</v>
       </c>
       <c r="S7">
-        <v>0.09728545488152528</v>
+        <v>0.2676593275198587</v>
       </c>
       <c r="T7">
-        <v>0.09728545488152528</v>
+        <v>0.2676593275198587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.07167491620001</v>
+        <v>48.53546666666667</v>
       </c>
       <c r="H8">
-        <v>5.07167491620001</v>
+        <v>145.6064</v>
       </c>
       <c r="I8">
-        <v>0.08890754365267219</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="J8">
-        <v>0.08890754365267219</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.74986089612813</v>
+        <v>0.009769666666666668</v>
       </c>
       <c r="N8">
-        <v>2.74986089612813</v>
+        <v>0.029309</v>
       </c>
       <c r="O8">
-        <v>0.5510345185681377</v>
+        <v>0.001798111507453522</v>
       </c>
       <c r="P8">
-        <v>0.5510345185681377</v>
+        <v>0.001798111507453522</v>
       </c>
       <c r="Q8">
-        <v>13.94640052993232</v>
+        <v>0.4741753308444446</v>
       </c>
       <c r="R8">
-        <v>13.94640052993232</v>
+        <v>4.2675779776</v>
       </c>
       <c r="S8">
-        <v>0.04899112551372591</v>
+        <v>0.001301846144829141</v>
       </c>
       <c r="T8">
-        <v>0.04899112551372591</v>
+        <v>0.001301846144829141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.07167491620001</v>
+        <v>48.53546666666667</v>
       </c>
       <c r="H9">
-        <v>5.07167491620001</v>
+        <v>145.6064</v>
       </c>
       <c r="I9">
-        <v>0.08890754365267219</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="J9">
-        <v>0.08890754365267219</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.66806562224113</v>
+        <v>0.6563016666666667</v>
       </c>
       <c r="N9">
-        <v>1.66806562224113</v>
+        <v>1.968905</v>
       </c>
       <c r="O9">
-        <v>0.3342575394944173</v>
+        <v>0.1207926144727823</v>
       </c>
       <c r="P9">
-        <v>0.3342575394944173</v>
+        <v>0.1207926144727823</v>
       </c>
       <c r="Q9">
-        <v>8.459886574895901</v>
+        <v>31.85390766577778</v>
       </c>
       <c r="R9">
-        <v>8.459886574895901</v>
+        <v>286.685168992</v>
       </c>
       <c r="S9">
-        <v>0.02971801678383471</v>
+        <v>0.08745475395901665</v>
       </c>
       <c r="T9">
-        <v>0.02971801678383471</v>
+        <v>0.08745475395901664</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14.58505066666667</v>
+      </c>
+      <c r="H10">
+        <v>43.755152</v>
+      </c>
+      <c r="I10">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="J10">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.75858</v>
+      </c>
+      <c r="N10">
+        <v>8.275739999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.5077178793781231</v>
+      </c>
+      <c r="P10">
+        <v>0.507717879378123</v>
+      </c>
+      <c r="Q10">
+        <v>40.23402906805333</v>
+      </c>
+      <c r="R10">
+        <v>362.10626161248</v>
+      </c>
+      <c r="S10">
+        <v>0.110462337928693</v>
+      </c>
+      <c r="T10">
+        <v>0.1104623379286929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>5.07167491620001</v>
-      </c>
-      <c r="H10">
-        <v>5.07167491620001</v>
-      </c>
-      <c r="I10">
-        <v>0.08890754365267219</v>
-      </c>
-      <c r="J10">
-        <v>0.08890754365267219</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.572433982591077</v>
-      </c>
-      <c r="N10">
-        <v>0.572433982591077</v>
-      </c>
-      <c r="O10">
-        <v>0.1147079419374449</v>
-      </c>
-      <c r="P10">
-        <v>0.1147079419374449</v>
-      </c>
-      <c r="Q10">
-        <v>2.903199070687639</v>
-      </c>
-      <c r="R10">
-        <v>2.903199070687639</v>
-      </c>
-      <c r="S10">
-        <v>0.01019840135511157</v>
-      </c>
-      <c r="T10">
-        <v>0.01019840135511157</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>14.58505066666667</v>
+      </c>
+      <c r="H11">
+        <v>43.755152</v>
+      </c>
+      <c r="I11">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="J11">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.008641666666667</v>
+      </c>
+      <c r="N11">
+        <v>6.025925</v>
+      </c>
+      <c r="O11">
+        <v>0.3696913946416412</v>
+      </c>
+      <c r="P11">
+        <v>0.3696913946416412</v>
+      </c>
+      <c r="Q11">
+        <v>29.29614047951111</v>
+      </c>
+      <c r="R11">
+        <v>263.6652643156</v>
+      </c>
+      <c r="S11">
+        <v>0.08043241615649588</v>
+      </c>
+      <c r="T11">
+        <v>0.08043241615649586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>14.58505066666667</v>
+      </c>
+      <c r="H12">
+        <v>43.755152</v>
+      </c>
+      <c r="I12">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="J12">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.009769666666666668</v>
+      </c>
+      <c r="N12">
+        <v>0.029309</v>
+      </c>
+      <c r="O12">
+        <v>0.001798111507453522</v>
+      </c>
+      <c r="P12">
+        <v>0.001798111507453522</v>
+      </c>
+      <c r="Q12">
+        <v>0.1424910833297778</v>
+      </c>
+      <c r="R12">
+        <v>1.282419749968</v>
+      </c>
+      <c r="S12">
+        <v>0.0003912086003610629</v>
+      </c>
+      <c r="T12">
+        <v>0.0003912086003610628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>14.58505066666667</v>
+      </c>
+      <c r="H13">
+        <v>43.755152</v>
+      </c>
+      <c r="I13">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="J13">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6563016666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.968905</v>
+      </c>
+      <c r="O13">
+        <v>0.1207926144727823</v>
+      </c>
+      <c r="P13">
+        <v>0.1207926144727823</v>
+      </c>
+      <c r="Q13">
+        <v>9.572193060951111</v>
+      </c>
+      <c r="R13">
+        <v>86.14973754856</v>
+      </c>
+      <c r="S13">
+        <v>0.02628041111241934</v>
+      </c>
+      <c r="T13">
+        <v>0.02628041111241934</v>
       </c>
     </row>
   </sheetData>
